--- a/£JET2.xlsx
+++ b/£JET2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FD54A3-4093-4E4E-B88F-975E9649981E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD1094-6F58-4FAC-A72E-34242602FA84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1708FFDB-CF52-4A00-AEC8-EBC6AE801104}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>£JET2</t>
   </si>
@@ -90,13 +90,16 @@
   </si>
   <si>
     <t>Destinations</t>
+  </si>
+  <si>
+    <t>Jet2 place $3.9bn order for 35 A320-NEO with an option to extend this to 71 orders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +124,21 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -240,23 +258,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -271,21 +281,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -298,11 +298,41 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -322,16 +352,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>6606</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>115116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -361,8 +391,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3228975" y="161926"/>
-          <a:ext cx="857249" cy="844805"/>
+          <a:off x="1400176" y="38102"/>
+          <a:ext cx="600074" cy="591364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -681,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77D5FB6-4FC6-4FCC-90EE-6F42913767E7}">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D23"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -692,159 +722,378 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="G5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>10.029999999999999</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+      <c r="D6" s="5"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>214.62</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="19" t="s">
+      <c r="G7" s="29">
+        <v>44835</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <f>C6*C7</f>
         <v>2152.6385999999998</v>
       </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
+      <c r="D8" s="5"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+      <c r="G9" s="28"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="19" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <f>C9-C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
+      <c r="D11" s="5"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <f>C8-C11</f>
         <v>2152.6385999999998</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="D12" s="6"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G13" s="28"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G14" s="28"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+      <c r="D16" s="23"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
+      <c r="D17" s="23"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="10"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G19" s="28"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="22" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="11"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="11"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="14"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="G5:Q5"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -855,8 +1104,11 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="B20:D20"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{E6CF0452-9AF4-4734-9B32-DA0C18523B99}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/£JET2.xlsx
+++ b/£JET2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD1094-6F58-4FAC-A72E-34242602FA84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163F15F5-074B-E841-9D95-A9D7FCF2A560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1708FFDB-CF52-4A00-AEC8-EBC6AE801104}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" xr2:uid="{1708FFDB-CF52-4A00-AEC8-EBC6AE801104}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>£JET2</t>
   </si>
@@ -93,6 +103,27 @@
   </si>
   <si>
     <t>Jet2 place $3.9bn order for 35 A320-NEO with an option to extend this to 71 orders</t>
+  </si>
+  <si>
+    <t>Company Profile</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Leeds, UK</t>
   </si>
 </sst>
 </file>
@@ -262,14 +293,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,37 +318,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -330,6 +329,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -711,388 +767,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77D5FB6-4FC6-4FCC-90EE-6F42913767E7}">
-  <dimension ref="B2:Q23"/>
+  <dimension ref="B2:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="G5" s="26" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="G5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
         <v>10.029999999999999</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
+      <c r="D6" s="36"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4">
         <v>214.62</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="17">
         <v>44835</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <f>C6*C7</f>
         <v>2152.6385999999998</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
+      <c r="D8" s="36"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4">
         <f>C9-C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
+      <c r="D11" s="36"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <f>C8-C11</f>
         <v>2152.6385999999998</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G13" s="28"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G14" s="28"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
+      <c r="D12" s="37"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="G13" s="16"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="G14" s="16"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+      <c r="D16" s="28"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G19" s="28"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
+      <c r="D17" s="28"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="G19" s="16"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="15" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="11"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="9"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="11"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="9"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="14"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="12"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="31">
+        <v>1971</v>
+      </c>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B29" s="13"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B30" s="13"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -1120,9 +1233,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1137,9 +1250,9 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/£JET2.xlsx
+++ b/£JET2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163F15F5-074B-E841-9D95-A9D7FCF2A560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B15B5D-9046-4E6F-A499-4216AE9B82E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" xr2:uid="{1708FFDB-CF52-4A00-AEC8-EBC6AE801104}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12225" xr2:uid="{1708FFDB-CF52-4A00-AEC8-EBC6AE801104}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>£JET2</t>
   </si>
@@ -124,6 +114,9 @@
   </si>
   <si>
     <t>Leeds, UK</t>
+  </si>
+  <si>
+    <t>IPO</t>
   </si>
 </sst>
 </file>
@@ -329,55 +322,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -385,6 +333,51 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -770,53 +763,53 @@
   <dimension ref="B2:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="19" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="G5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
         <v>10.029999999999999</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="21"/>
       <c r="G6" s="16"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -829,14 +822,14 @@
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4">
         <v>214.62</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="17">
@@ -855,7 +848,7 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
@@ -863,7 +856,7 @@
         <f>C6*C7</f>
         <v>2152.6385999999998</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="21"/>
       <c r="G8" s="16"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -876,14 +869,14 @@
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="16"/>
@@ -898,14 +891,14 @@
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="16"/>
@@ -920,7 +913,7 @@
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
@@ -928,7 +921,7 @@
         <f>C9-C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="21"/>
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -941,7 +934,7 @@
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
@@ -949,7 +942,7 @@
         <f>C8-C11</f>
         <v>2152.6385999999998</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="22"/>
       <c r="G12" s="16"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -962,7 +955,7 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G13" s="16"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -975,7 +968,7 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G14" s="16"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -988,12 +981,12 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
       <c r="G15" s="16"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -1006,14 +999,14 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="29"/>
       <c r="G16" s="16"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -1026,14 +1019,14 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="29"/>
       <c r="G17" s="16"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -1046,10 +1039,10 @@
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
       <c r="G18" s="16"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -1062,7 +1055,7 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G19" s="16"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -1075,12 +1068,12 @@
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B20" s="24" t="s">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
       <c r="G20" s="16"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -1093,11 +1086,11 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="20" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="9"/>
       <c r="G21" s="16"/>
       <c r="H21" s="15"/>
@@ -1111,11 +1104,11 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="20" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="9"/>
       <c r="G22" s="16"/>
       <c r="H22" s="15"/>
@@ -1129,11 +1122,11 @@
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B23" s="22" t="s">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="12"/>
       <c r="G23" s="16"/>
       <c r="H23" s="15"/>
@@ -1147,65 +1140,63 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B26" s="24" t="s">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="28">
         <v>1971</v>
       </c>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B29" s="13"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="28">
+        <v>1988</v>
+      </c>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -1216,6 +1207,12 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" xr:uid="{E6CF0452-9AF4-4734-9B32-DA0C18523B99}"/>
@@ -1233,9 +1230,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1250,9 +1247,9 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
